--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2_马丁组.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>张贤翠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -615,18 +623,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -641,6 +637,18 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="3" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -997,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1095,7 @@
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="38" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -1099,13 +1107,13 @@
       <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="42">
         <v>42578</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="42">
         <v>42578</v>
       </c>
       <c r="I2" s="18"/>
@@ -1118,9 +1126,15 @@
       <c r="L2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="R2" s="32"/>
@@ -1131,7 +1145,7 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -1143,13 +1157,13 @@
       <c r="E3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="42">
         <v>42578</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="42">
         <v>42578</v>
       </c>
       <c r="I3" s="18"/>
@@ -1162,9 +1176,15 @@
       <c r="L3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1175,7 +1195,7 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -1187,13 +1207,13 @@
       <c r="E4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="42">
         <v>42578</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="42">
         <v>42578</v>
       </c>
       <c r="I4" s="18"/>
@@ -1206,9 +1226,15 @@
       <c r="L4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="28"/>
+      <c r="M4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1219,7 +1245,7 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -1231,13 +1257,13 @@
       <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="42">
         <v>42578</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="42">
         <v>42578</v>
       </c>
       <c r="I5" s="18"/>
@@ -1250,9 +1276,15 @@
       <c r="L5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1263,7 +1295,7 @@
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -1275,13 +1307,13 @@
       <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="42">
         <v>42578</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="42">
         <v>42578</v>
       </c>
       <c r="I6" s="18"/>
@@ -1294,9 +1326,15 @@
       <c r="L6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="28"/>
+      <c r="M6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
@@ -1307,7 +1345,7 @@
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -1319,13 +1357,13 @@
       <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="42">
         <v>42578</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="42">
         <v>42578</v>
       </c>
       <c r="I7" s="18"/>
@@ -1338,9 +1376,15 @@
       <c r="L7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="24"/>
+      <c r="M7" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1351,7 +1395,7 @@
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1363,13 +1407,13 @@
       <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="42">
         <v>42578</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="42">
         <v>42578</v>
       </c>
       <c r="I8" s="18"/>
@@ -1382,9 +1426,15 @@
       <c r="L8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="24"/>
+      <c r="M8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1395,7 +1445,7 @@
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1407,13 +1457,13 @@
       <c r="E9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="42">
         <v>42578</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="42">
         <v>42578</v>
       </c>
       <c r="I9" s="18"/>
@@ -1426,9 +1476,15 @@
       <c r="L9" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="24"/>
+      <c r="M9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1439,7 +1495,7 @@
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -1451,13 +1507,13 @@
       <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="42">
         <v>42578</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="42">
         <v>42578</v>
       </c>
       <c r="I10" s="18"/>
@@ -1470,9 +1526,15 @@
       <c r="L10" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="24"/>
+      <c r="M10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1483,7 +1545,7 @@
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="29" t="s">
@@ -1495,13 +1557,13 @@
       <c r="E11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <v>42578</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="42">
         <v>42578</v>
       </c>
       <c r="I11" s="18"/>
@@ -1514,9 +1576,15 @@
       <c r="L11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="24"/>
+      <c r="M11" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N11" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
@@ -1527,7 +1595,7 @@
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="29" t="s">
@@ -1539,13 +1607,13 @@
       <c r="E12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="42">
         <v>42578</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="42">
         <v>42578</v>
       </c>
       <c r="I12" s="18"/>
@@ -1558,9 +1626,15 @@
       <c r="L12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="24"/>
+      <c r="M12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="42">
+        <v>42578</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
@@ -6244,36 +6318,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
